--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6402640264026402</v>
+        <v>0.5780346820809249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9023255813953488</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7490347490347491</v>
+        <v>0.7130124777183602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7316495402920498</v>
+        <v>0.804835045970795</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7437722419928826</v>
+        <v>0.7675276752767528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9720930232558139</v>
+        <v>0.9674418604651163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8427419354838709</v>
+        <v>0.8559670781893004</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7089021092482423</v>
+        <v>0.9110221741481882</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6531365313653137</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8232558139534883</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="D4" t="n">
-        <v>0.728395061728395</v>
+        <v>0.9382716049382717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5903515413737155</v>
+        <v>0.9937263385613845</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9725274725274725</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8232558139534883</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8916876574307305</v>
+        <v>0.951219512195122</v>
       </c>
       <c r="E5" t="n">
-        <v>0.97269875608437</v>
+        <v>0.9995673336938886</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9885714285714285</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8046511627906977</v>
+        <v>0.9581395348837209</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8871794871794872</v>
+        <v>0.9786223277909739</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9329799891833422</v>
+        <v>0.9992644672796107</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7996543401719475</v>
+        <v>0.8691124714715356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8651162790697674</v>
+        <v>0.9293023255813952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8198077781714466</v>
+        <v>0.8874186001664055</v>
       </c>
       <c r="E7" t="n">
-        <v>0.787316387236344</v>
+        <v>0.9416830719307734</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5780346820809249</v>
+        <v>0.63</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7130124777183602</v>
+        <v>0.7620967741935484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.804835045970795</v>
+        <v>0.7833071690214548</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7675276752767528</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8559670781893004</v>
+        <v>0.9242053789731052</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9110221741481882</v>
+        <v>0.9935897435897435</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.958974358974359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9382716049382717</v>
+        <v>0.9614395886889461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9937263385613845</v>
+        <v>0.9892987964416536</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.958974358974359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.951219512195122</v>
+        <v>0.9790575916230366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995673336938886</v>
+        <v>0.9914704343275772</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9581395348837209</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9786223277909739</v>
+        <v>0.9819121447028424</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992644672796107</v>
+        <v>0.9984220907297831</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8691124714715356</v>
+        <v>0.8941649605537002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9293023255813952</v>
+        <v>0.9641758241758241</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8874186001664055</v>
+        <v>0.9217422956362956</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9416830719307734</v>
+        <v>0.9512176468220425</v>
       </c>
     </row>
   </sheetData>
